--- a/data/trans_media/IP29B_2023-Estudios-trans_media.xlsx
+++ b/data/trans_media/IP29B_2023-Estudios-trans_media.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores según el número de meses hasta los que recibieron lactancia materna exclusiva</t>
+          <t>Meses con lactancia materna exclusiva</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,07; 13,36</t>
+          <t>6,92; 13,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,97</t>
+          <t>5,8; 11,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,29</t>
+          <t>6,93; 11,26</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 9,44</t>
+          <t>7,53; 9,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 9,44</t>
+          <t>7,58; 9,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 9,1</t>
+          <t>7,8; 9,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,6</t>
+          <t>7,64; 10,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,43</t>
+          <t>8,33; 11,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,22; 10,37</t>
+          <t>8,28; 10,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,91; 9,49</t>
+          <t>7,87; 9,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,03; 9,62</t>
+          <t>8,07; 9,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 9,3</t>
+          <t>8,09; 9,28</t>
         </is>
       </c>
     </row>
